--- a/model/results/mix3_ggpos_h2pos/v_sce.xlsx
+++ b/model/results/mix3_ggpos_h2pos/v_sce.xlsx
@@ -790,10 +790,10 @@
         <v>1.583461538461538</v>
       </c>
       <c r="E3" t="n">
+        <v>1.5215</v>
+      </c>
+      <c r="F3" t="n">
         <v>1.583461538461538</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1.5215</v>
       </c>
       <c r="G3" t="n">
         <v>0.16</v>
@@ -921,10 +921,10 @@
         <v>1.583461538461538</v>
       </c>
       <c r="E4" t="n">
+        <v>1.5215</v>
+      </c>
+      <c r="F4" t="n">
         <v>1.583461538461538</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1.5215</v>
       </c>
       <c r="G4" t="n">
         <v>0.16</v>
@@ -1052,10 +1052,10 @@
         <v>1.583461538461538</v>
       </c>
       <c r="E5" t="n">
+        <v>1.5215</v>
+      </c>
+      <c r="F5" t="n">
         <v>1.583461538461538</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1.5215</v>
       </c>
       <c r="G5" t="n">
         <v>0.16</v>
@@ -1174,19 +1174,19 @@
         <v>2025</v>
       </c>
       <c r="B6" t="n">
+        <v>0.8674615384615383</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.8674615384615384</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.449008219447799</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.1635</v>
+      </c>
+      <c r="F6" t="n">
         <v>1.583461538461538</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1.171320006520043</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.8674615384615382</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.8674615384615382</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.4474999999999999</v>
       </c>
       <c r="G6" t="n">
         <v>0.16</v>
@@ -1305,19 +1305,19 @@
         <v>2026</v>
       </c>
       <c r="B7" t="n">
-        <v>0.8674615384615385</v>
+        <v>0.8674615384615384</v>
       </c>
       <c r="C7" t="n">
+        <v>0.1514619593541459</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.201310761088609</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.1635</v>
+      </c>
+      <c r="F7" t="n">
         <v>0.8674615384615382</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.1514615384615383</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.8674615384615382</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.4474999999999999</v>
       </c>
       <c r="G7" t="n">
         <v>0.16</v>
@@ -1436,19 +1436,19 @@
         <v>2027</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1514615384615385</v>
+        <v>0.8674615384615383</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8674615384615382</v>
+        <v>0.1514615384615383</v>
       </c>
       <c r="D8" t="n">
+        <v>1.201310761088609</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.1635</v>
+      </c>
+      <c r="F8" t="n">
         <v>0.1514615384615383</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.1514615384615383</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.4474999999999999</v>
       </c>
       <c r="G8" t="n">
         <v>0.16</v>
@@ -1567,19 +1567,19 @@
         <v>2028</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1514615384615385</v>
+        <v>0.1514615384615383</v>
       </c>
       <c r="C9" t="n">
+        <v>0.1514615384615383</v>
+      </c>
+      <c r="D9" t="n">
         <v>0.8674615384615382</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
+        <v>0.4474999999999998</v>
+      </c>
+      <c r="F9" t="n">
         <v>0.1514615384615383</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.1514615384615383</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.4474999999999999</v>
       </c>
       <c r="G9" t="n">
         <v>0.16</v>
@@ -1597,7 +1597,7 @@
         <v>0.01845000000000002</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01845000000025071</v>
+        <v>0.01844999999892816</v>
       </c>
       <c r="M9" t="n">
         <v>0.01845000000000002</v>
@@ -1618,10 +1618,10 @@
         <v>0.01845000000000002</v>
       </c>
       <c r="S9" t="n">
-        <v>0.01845000000012373</v>
+        <v>0.01845000000000002</v>
       </c>
       <c r="T9" t="n">
-        <v>0.01845000000643174</v>
+        <v>0.01845000000000002</v>
       </c>
       <c r="U9" t="n">
         <v>0.01845000000000002</v>
@@ -1636,16 +1636,16 @@
         <v>0.01845000000000002</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.01845000000023314</v>
+        <v>0.01844999999978233</v>
       </c>
       <c r="Z9" t="n">
         <v>0.01845000000000002</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.01845000001582506</v>
+        <v>0.01845000000000002</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.01845000001532601</v>
+        <v>0.01845000000000002</v>
       </c>
       <c r="AC9" t="n">
         <v>0.01845000000000002</v>
@@ -1657,7 +1657,7 @@
         <v>0.01845000000000002</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.01845000000000002</v>
+        <v>0.01845000000152205</v>
       </c>
       <c r="AG9" t="n">
         <v>0</v>
@@ -1698,7 +1698,7 @@
         <v>2029</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1514615384615385</v>
+        <v>0.1514615384615383</v>
       </c>
       <c r="C10" t="n">
         <v>0.1514615384615383</v>
@@ -1707,10 +1707,10 @@
         <v>0.1514615384615383</v>
       </c>
       <c r="E10" t="n">
+        <v>0.4474999999999998</v>
+      </c>
+      <c r="F10" t="n">
         <v>0.1514615384615383</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.4474999999999999</v>
       </c>
       <c r="G10" t="n">
         <v>0.16</v>
@@ -1728,7 +1728,7 @@
         <v>0.01230000000000001</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01230000000025069</v>
+        <v>0.01229999999892814</v>
       </c>
       <c r="M10" t="n">
         <v>0.01230000000000001</v>
@@ -1749,10 +1749,10 @@
         <v>0.01230000000000001</v>
       </c>
       <c r="S10" t="n">
-        <v>0.01230000000012374</v>
+        <v>0.01230000000000001</v>
       </c>
       <c r="T10" t="n">
-        <v>0.01230000000643175</v>
+        <v>0.01230000000000001</v>
       </c>
       <c r="U10" t="n">
         <v>0.01230000000000001</v>
@@ -1767,16 +1767,16 @@
         <v>0.01230000000000001</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.01230000000023312</v>
+        <v>0.01229999999978232</v>
       </c>
       <c r="Z10" t="n">
         <v>0.01230000000000001</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.01230000001582504</v>
+        <v>0.01230000000000001</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.012300000015326</v>
+        <v>0.01230000000000001</v>
       </c>
       <c r="AC10" t="n">
         <v>0.01230000000000001</v>
@@ -1788,7 +1788,7 @@
         <v>0.01230000000000001</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.01230000000000001</v>
+        <v>0.01230000000152204</v>
       </c>
       <c r="AG10" t="n">
         <v>0</v>
@@ -1829,7 +1829,7 @@
         <v>2030</v>
       </c>
       <c r="B11" t="n">
-        <v>0.1514615384615383</v>
+        <v>0.1514615384615381</v>
       </c>
       <c r="C11" t="n">
         <v>0.1514615384615381</v>
@@ -1838,11 +1838,11 @@
         <v>0.1514615384615381</v>
       </c>
       <c r="E11" t="n">
+        <v>0.4474999999999999</v>
+      </c>
+      <c r="F11" t="n">
         <v>0.1514615384615381</v>
       </c>
-      <c r="F11" t="n">
-        <v>0.4474999999999999</v>
-      </c>
       <c r="G11" t="n">
         <v>0.16</v>
       </c>
@@ -1859,7 +1859,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>2.506883589603603e-13</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -1880,10 +1880,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1.237343560944737e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>6.431744026258457e-12</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1898,16 +1898,16 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>2.331190795956672e-13</v>
+        <v>0</v>
       </c>
       <c r="Z11" t="n">
         <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>1.582503572628013e-11</v>
+        <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>1.532599047671113e-11</v>
+        <v>0</v>
       </c>
       <c r="AC11" t="n">
         <v>0</v>
@@ -1960,7 +1960,7 @@
         <v>2031</v>
       </c>
       <c r="B12" t="n">
-        <v>0.1514615384615383</v>
+        <v>0.1514615384615381</v>
       </c>
       <c r="C12" t="n">
         <v>0.1514615384615381</v>
@@ -1969,11 +1969,11 @@
         <v>0.1514615384615381</v>
       </c>
       <c r="E12" t="n">
+        <v>0.4474999999999999</v>
+      </c>
+      <c r="F12" t="n">
         <v>0.1514615384615381</v>
       </c>
-      <c r="F12" t="n">
-        <v>0.4474999999999999</v>
-      </c>
       <c r="G12" t="n">
         <v>0.16</v>
       </c>
@@ -1990,7 +1990,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>2.506883589603603e-13</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>1.237343560944737e-13</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -2029,16 +2029,16 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>2.331190795956672e-13</v>
+        <v>0</v>
       </c>
       <c r="Z12" t="n">
         <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>1.582503572628013e-11</v>
+        <v>0</v>
       </c>
       <c r="AB12" t="n">
-        <v>1.532599047671113e-11</v>
+        <v>0</v>
       </c>
       <c r="AC12" t="n">
         <v>0</v>
@@ -2091,7 +2091,7 @@
         <v>2032</v>
       </c>
       <c r="B13" t="n">
-        <v>0.1514615384615383</v>
+        <v>0.1514615384615381</v>
       </c>
       <c r="C13" t="n">
         <v>0.1514615384615381</v>
@@ -2100,11 +2100,11 @@
         <v>0.1514615384615381</v>
       </c>
       <c r="E13" t="n">
+        <v>0.4474999999999999</v>
+      </c>
+      <c r="F13" t="n">
         <v>0.1514615384615381</v>
       </c>
-      <c r="F13" t="n">
-        <v>0.4474999999999999</v>
-      </c>
       <c r="G13" t="n">
         <v>0.16</v>
       </c>
@@ -2121,7 +2121,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>2.506883589603603e-13</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -2142,7 +2142,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>1.237343560944737e-13</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -2160,13 +2160,13 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>2.331190795956672e-13</v>
+        <v>0</v>
       </c>
       <c r="Z13" t="n">
         <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>1.05707546090472e-17</v>
+        <v>0</v>
       </c>
       <c r="AB13" t="n">
         <v>0</v>
@@ -2231,11 +2231,11 @@
         <v>0.1514615384615381</v>
       </c>
       <c r="E14" t="n">
+        <v>0.4474999999999999</v>
+      </c>
+      <c r="F14" t="n">
         <v>0.1514615384615381</v>
       </c>
-      <c r="F14" t="n">
-        <v>0.4474999999999999</v>
-      </c>
       <c r="G14" t="n">
         <v>0.16</v>
       </c>
@@ -2297,7 +2297,7 @@
         <v>0</v>
       </c>
       <c r="AA14" t="n">
-        <v>1.05707546090472e-17</v>
+        <v>0</v>
       </c>
       <c r="AB14" t="n">
         <v>0</v>
@@ -2353,7 +2353,7 @@
         <v>2034</v>
       </c>
       <c r="B15" t="n">
-        <v>0.1514615384615341</v>
+        <v>0.1514615384615381</v>
       </c>
       <c r="C15" t="n">
         <v>0.1514615384615381</v>
@@ -2362,11 +2362,11 @@
         <v>0.1514615384615381</v>
       </c>
       <c r="E15" t="n">
+        <v>0.4474999999999999</v>
+      </c>
+      <c r="F15" t="n">
         <v>0.1514615384615381</v>
       </c>
-      <c r="F15" t="n">
-        <v>0.4474999999999999</v>
-      </c>
       <c r="G15" t="n">
         <v>0.16</v>
       </c>
@@ -2428,7 +2428,7 @@
         <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>1.05707546090472e-17</v>
+        <v>0</v>
       </c>
       <c r="AB15" t="n">
         <v>0</v>
@@ -2484,19 +2484,19 @@
         <v>2035</v>
       </c>
       <c r="B16" t="n">
-        <v>0.1514615384615341</v>
+        <v>0.1514615384615381</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1514615384615381</v>
+        <v>0.1514615384615355</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1514615384615381</v>
+        <v>0.1514615384615355</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1514615384615384</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>0.151461538461538</v>
       </c>
       <c r="G16" t="n">
         <v>0.16</v>
@@ -2559,7 +2559,7 @@
         <v>0</v>
       </c>
       <c r="AA16" t="n">
-        <v>1.05707546090472e-17</v>
+        <v>0</v>
       </c>
       <c r="AB16" t="n">
         <v>0</v>
@@ -2615,19 +2615,19 @@
         <v>2036</v>
       </c>
       <c r="B17" t="n">
-        <v>0.1514615384615383</v>
+        <v>0.1514615384615381</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1514615384615381</v>
+        <v>0.1514615384615355</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1514615384615381</v>
+        <v>0.1514615384615355</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1514615384615383</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>0.151461538461538</v>
       </c>
       <c r="G17" t="n">
         <v>0.16</v>
@@ -2690,7 +2690,7 @@
         <v>0</v>
       </c>
       <c r="AA17" t="n">
-        <v>1.05707546090472e-17</v>
+        <v>0</v>
       </c>
       <c r="AB17" t="n">
         <v>0</v>
@@ -2746,20 +2746,20 @@
         <v>2037</v>
       </c>
       <c r="B18" t="n">
+        <v>0.1514615384615381</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.1514615384615355</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.1514615384615355</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
         <v>0.1514615384615382</v>
       </c>
-      <c r="C18" t="n">
-        <v>0.1514615384615381</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.1514615384615381</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.1514615384615383</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
       <c r="G18" t="n">
         <v>0.16</v>
       </c>
@@ -2821,7 +2821,7 @@
         <v>0</v>
       </c>
       <c r="AA18" t="n">
-        <v>1.05707546090472e-17</v>
+        <v>0</v>
       </c>
       <c r="AB18" t="n">
         <v>0</v>
@@ -2877,20 +2877,20 @@
         <v>2038</v>
       </c>
       <c r="B19" t="n">
+        <v>0.1514615384615381</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.1514615384615355</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.1514615384615355</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
         <v>0.1514615384615382</v>
       </c>
-      <c r="C19" t="n">
-        <v>0.1514615384615381</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.1514615384615381</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.1514615384615383</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
       <c r="G19" t="n">
         <v>0.16</v>
       </c>
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="AA19" t="n">
-        <v>1.05707546090472e-17</v>
+        <v>0</v>
       </c>
       <c r="AB19" t="n">
         <v>0</v>
@@ -3008,7 +3008,7 @@
         <v>2039</v>
       </c>
       <c r="B20" t="n">
-        <v>0.1514615384615382</v>
+        <v>0.1514615384615381</v>
       </c>
       <c r="C20" t="n">
         <v>0.1514615384615381</v>
@@ -3017,11 +3017,11 @@
         <v>0.1514615384615381</v>
       </c>
       <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>0.1514615384615382</v>
       </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
       <c r="G20" t="n">
         <v>0.16</v>
       </c>
@@ -3083,7 +3083,7 @@
         <v>0</v>
       </c>
       <c r="AA20" t="n">
-        <v>1.05707546090472e-17</v>
+        <v>0</v>
       </c>
       <c r="AB20" t="n">
         <v>0</v>
@@ -3139,20 +3139,20 @@
         <v>2040</v>
       </c>
       <c r="B21" t="n">
-        <v>0.1514615384615383</v>
+        <v>0.1514615384615382</v>
       </c>
       <c r="C21" t="n">
         <v>0.1514615384615381</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1514615384615381</v>
+        <v>0.1514615384615382</v>
       </c>
       <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
         <v>0.1514615384615382</v>
       </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
       <c r="G21" t="n">
         <v>0.16</v>
       </c>
@@ -3214,7 +3214,7 @@
         <v>0</v>
       </c>
       <c r="AA21" t="n">
-        <v>1.05707546090472e-17</v>
+        <v>0</v>
       </c>
       <c r="AB21" t="n">
         <v>0</v>
